--- a/m_03/m_03_v_01/m_03_v_01.xlsx
+++ b/m_03/m_03_v_01/m_03_v_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\modern-analytics-excel-book\ch_10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\advanced_analytics_excel_video_course\m_03\m_03_v_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBA0F13-C5BC-41D8-A530-3E3730EF559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF517B-77AE-4473-A70E-02ED09A95054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array-references" sheetId="3" r:id="rId1"/>
@@ -565,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886B6D4A-372A-44D5-9850-365A4A804FBA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -605,7 +607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A3CD22-BB7B-4305-9639-39B459C0453E}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
